--- a/tools/demo.xlsx
+++ b/tools/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>S1</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -37,6 +37,30 @@
   </si>
   <si>
     <t>名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1DESC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2DESC</t>
+  </si>
+  <si>
+    <t>S3DESC</t>
+  </si>
+  <si>
+    <t>S4DESC</t>
+  </si>
+  <si>
+    <t>S5DESC</t>
+  </si>
+  <si>
+    <t>等级</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -965,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -976,52 +1000,88 @@
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
